--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tslp</t>
+  </si>
+  <si>
+    <t>Crlf2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tslp</t>
-  </si>
-  <si>
-    <t>Crlf2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9251003333333333</v>
+        <v>1.792961666666667</v>
       </c>
       <c r="H2">
-        <v>2.775301</v>
+        <v>5.378885</v>
       </c>
       <c r="I2">
-        <v>0.2628530929907478</v>
+        <v>0.5131245694953562</v>
       </c>
       <c r="J2">
-        <v>0.2806392177011457</v>
+        <v>0.5172697153311289</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.747391333333333</v>
+        <v>3.616815333333333</v>
       </c>
       <c r="N2">
-        <v>11.242174</v>
+        <v>10.850446</v>
       </c>
       <c r="O2">
-        <v>0.1082098673156476</v>
+        <v>0.08362067220889408</v>
       </c>
       <c r="P2">
-        <v>0.1100251243307724</v>
+        <v>0.08440908681469358</v>
       </c>
       <c r="Q2">
-        <v>3.466712971597111</v>
+        <v>6.48481124807889</v>
       </c>
       <c r="R2">
-        <v>31.200416744374</v>
+        <v>58.36330123271</v>
       </c>
       <c r="S2">
-        <v>0.0284432983160364</v>
+        <v>0.04290782142810107</v>
       </c>
       <c r="T2">
-        <v>0.03087736481965926</v>
+        <v>0.04366226430799709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9251003333333333</v>
+        <v>1.792961666666667</v>
       </c>
       <c r="H3">
-        <v>2.775301</v>
+        <v>5.378885</v>
       </c>
       <c r="I3">
-        <v>0.2628530929907478</v>
+        <v>0.5131245694953562</v>
       </c>
       <c r="J3">
-        <v>0.2806392177011457</v>
+        <v>0.5172697153311289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.745741</v>
       </c>
       <c r="O3">
-        <v>0.1130568762886931</v>
+        <v>0.09052040423145441</v>
       </c>
       <c r="P3">
-        <v>0.1149534435138658</v>
+        <v>0.09137387272116794</v>
       </c>
       <c r="Q3">
-        <v>3.621996304782333</v>
+        <v>7.019887786531666</v>
       </c>
       <c r="R3">
-        <v>32.59796674304099</v>
+        <v>63.178990078785</v>
       </c>
       <c r="S3">
-        <v>0.02971734961635531</v>
+        <v>0.04644824345181067</v>
       </c>
       <c r="T3">
-        <v>0.03226044445978414</v>
+        <v>0.04726493713118134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9251003333333333</v>
+        <v>1.792961666666667</v>
       </c>
       <c r="H4">
-        <v>2.775301</v>
+        <v>5.378885</v>
       </c>
       <c r="I4">
-        <v>0.2628530929907478</v>
+        <v>0.5131245694953562</v>
       </c>
       <c r="J4">
-        <v>0.2806392177011457</v>
+        <v>0.5172697153311289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.58764366666667</v>
+        <v>18.824197</v>
       </c>
       <c r="N4">
-        <v>40.762931</v>
+        <v>56.47259099999999</v>
       </c>
       <c r="O4">
-        <v>0.3923575062000373</v>
+        <v>0.4352149230361537</v>
       </c>
       <c r="P4">
-        <v>0.3989394356786949</v>
+        <v>0.4393183318335194</v>
       </c>
       <c r="Q4">
-        <v>12.56993368524789</v>
+        <v>33.75106362678167</v>
       </c>
       <c r="R4">
-        <v>113.129403167231</v>
+        <v>303.759572641035</v>
       </c>
       <c r="S4">
-        <v>0.1031323840628163</v>
+        <v>0.223319470020881</v>
       </c>
       <c r="T4">
-        <v>0.1119580511390055</v>
+        <v>0.227246068447271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9251003333333333</v>
+        <v>1.792961666666667</v>
       </c>
       <c r="H5">
-        <v>2.775301</v>
+        <v>5.378885</v>
       </c>
       <c r="I5">
-        <v>0.2628530929907478</v>
+        <v>0.5131245694953562</v>
       </c>
       <c r="J5">
-        <v>0.2806392177011457</v>
+        <v>0.5172697153311289</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7140745</v>
+        <v>1.211991</v>
       </c>
       <c r="N5">
-        <v>3.428149</v>
+        <v>2.423982</v>
       </c>
       <c r="O5">
-        <v>0.04949570453565343</v>
+        <v>0.02802119898052018</v>
       </c>
       <c r="P5">
-        <v>0.03355067444690085</v>
+        <v>0.01885693058840665</v>
       </c>
       <c r="Q5">
-        <v>1.585690891308167</v>
+        <v>2.173053403345</v>
       </c>
       <c r="R5">
-        <v>9.514145347849</v>
+        <v>13.03832042007</v>
       </c>
       <c r="S5">
-        <v>0.01301009902695269</v>
+        <v>0.01437836566362313</v>
       </c>
       <c r="T5">
-        <v>0.009415635030124074</v>
+        <v>0.009754119117483966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9251003333333333</v>
+        <v>1.792961666666667</v>
       </c>
       <c r="H6">
-        <v>2.775301</v>
+        <v>5.378885</v>
       </c>
       <c r="I6">
-        <v>0.2628530929907478</v>
+        <v>0.5131245694953562</v>
       </c>
       <c r="J6">
-        <v>0.2806392177011457</v>
+        <v>0.5172697153311289</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.66641633333333</v>
+        <v>15.68439566666667</v>
       </c>
       <c r="N6">
-        <v>34.999249</v>
+        <v>47.053187</v>
       </c>
       <c r="O6">
-        <v>0.3368800456599686</v>
+        <v>0.3626228015429777</v>
       </c>
       <c r="P6">
-        <v>0.3425313220297659</v>
+        <v>0.3660417780422124</v>
       </c>
       <c r="Q6">
-        <v>10.79260563877211</v>
+        <v>28.12152019516611</v>
       </c>
       <c r="R6">
-        <v>97.13345074894899</v>
+        <v>253.093681756495</v>
       </c>
       <c r="S6">
-        <v>0.08854996196858708</v>
+        <v>0.1860706689309404</v>
       </c>
       <c r="T6">
-        <v>0.09612772225257273</v>
+        <v>0.1893423263271955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.252874</v>
       </c>
       <c r="I7">
-        <v>0.2133732157407207</v>
+        <v>0.2149153591083061</v>
       </c>
       <c r="J7">
-        <v>0.2278112525233302</v>
+        <v>0.2166514979697282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.747391333333333</v>
+        <v>3.616815333333333</v>
       </c>
       <c r="N7">
-        <v>11.242174</v>
+        <v>10.850446</v>
       </c>
       <c r="O7">
-        <v>0.1082098673156476</v>
+        <v>0.08362067220889408</v>
       </c>
       <c r="P7">
-        <v>0.1100251243307724</v>
+        <v>0.08440908681469358</v>
       </c>
       <c r="Q7">
-        <v>2.814133500897333</v>
+        <v>2.716076409089333</v>
       </c>
       <c r="R7">
-        <v>25.327201508076</v>
+        <v>24.444687681804</v>
       </c>
       <c r="S7">
-        <v>0.02308908736401644</v>
+        <v>0.01797136679665242</v>
       </c>
       <c r="T7">
-        <v>0.0250649613828284</v>
+        <v>0.0182873551006602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.252874</v>
       </c>
       <c r="I8">
-        <v>0.2133732157407207</v>
+        <v>0.2149153591083061</v>
       </c>
       <c r="J8">
-        <v>0.2278112525233302</v>
+        <v>0.2166514979697282</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.745741</v>
       </c>
       <c r="O8">
-        <v>0.1130568762886931</v>
+        <v>0.09052040423145441</v>
       </c>
       <c r="P8">
-        <v>0.1149534435138658</v>
+        <v>0.09137387272116794</v>
       </c>
       <c r="Q8">
         <v>2.940186056625999</v>
@@ -948,10 +948,10 @@
         <v>26.46167450963399</v>
       </c>
       <c r="S8">
-        <v>0.02412330925531928</v>
+        <v>0.01945422518203205</v>
       </c>
       <c r="T8">
-        <v>0.02618768794876366</v>
+        <v>0.01979628640033632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.252874</v>
       </c>
       <c r="I9">
-        <v>0.2133732157407207</v>
+        <v>0.2149153591083061</v>
       </c>
       <c r="J9">
-        <v>0.2278112525233302</v>
+        <v>0.2166514979697282</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.58764366666667</v>
+        <v>18.824197</v>
       </c>
       <c r="N9">
-        <v>40.762931</v>
+        <v>56.47259099999999</v>
       </c>
       <c r="O9">
-        <v>0.3923575062000373</v>
+        <v>0.4352149230361537</v>
       </c>
       <c r="P9">
-        <v>0.3989394356786949</v>
+        <v>0.4393183318335194</v>
       </c>
       <c r="Q9">
-        <v>10.20374971263267</v>
+        <v>14.136181330726</v>
       </c>
       <c r="R9">
-        <v>91.833747413694</v>
+        <v>127.225631976534</v>
       </c>
       <c r="S9">
-        <v>0.08371858281791172</v>
+        <v>0.09353437147360875</v>
       </c>
       <c r="T9">
-        <v>0.09088289252291404</v>
+        <v>0.09517897467729412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>2.252874</v>
       </c>
       <c r="I10">
-        <v>0.2133732157407207</v>
+        <v>0.2149153591083061</v>
       </c>
       <c r="J10">
-        <v>0.2278112525233302</v>
+        <v>0.2166514979697282</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7140745</v>
+        <v>1.211991</v>
       </c>
       <c r="N10">
-        <v>3.428149</v>
+        <v>2.423982</v>
       </c>
       <c r="O10">
-        <v>0.04949570453565343</v>
+        <v>0.02802119898052018</v>
       </c>
       <c r="P10">
-        <v>0.03355067444690085</v>
+        <v>0.01885693058840665</v>
       </c>
       <c r="Q10">
-        <v>1.287197958371</v>
+        <v>0.9101543373779999</v>
       </c>
       <c r="R10">
-        <v>7.723187750226</v>
+        <v>5.460926024268</v>
       </c>
       <c r="S10">
-        <v>0.01056105764212495</v>
+        <v>0.006022186041543793</v>
       </c>
       <c r="T10">
-        <v>0.007643221168750973</v>
+        <v>0.00408538225908949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.252874</v>
       </c>
       <c r="I11">
-        <v>0.2133732157407207</v>
+        <v>0.2149153591083061</v>
       </c>
       <c r="J11">
-        <v>0.2278112525233302</v>
+        <v>0.2166514979697282</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.66641633333333</v>
+        <v>15.68439566666667</v>
       </c>
       <c r="N11">
-        <v>34.999249</v>
+        <v>47.053187</v>
       </c>
       <c r="O11">
-        <v>0.3368800456599686</v>
+        <v>0.3626228015429777</v>
       </c>
       <c r="P11">
-        <v>0.3425313220297659</v>
+        <v>0.3660417780422124</v>
       </c>
       <c r="Q11">
-        <v>8.760988676847331</v>
+        <v>11.77832240104867</v>
       </c>
       <c r="R11">
-        <v>78.848898091626</v>
+        <v>106.004901609438</v>
       </c>
       <c r="S11">
-        <v>0.07188117866134831</v>
+        <v>0.07793320961446905</v>
       </c>
       <c r="T11">
-        <v>0.07803248950007316</v>
+        <v>0.0793034995323481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7632633333333333</v>
+        <v>0.8662813333333333</v>
       </c>
       <c r="H12">
-        <v>2.28979</v>
+        <v>2.598844</v>
       </c>
       <c r="I12">
-        <v>0.2168695877669789</v>
+        <v>0.2479195425605101</v>
       </c>
       <c r="J12">
-        <v>0.2315442088263242</v>
+        <v>0.2499222972920991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.747391333333333</v>
+        <v>3.616815333333333</v>
       </c>
       <c r="N12">
-        <v>11.242174</v>
+        <v>10.850446</v>
       </c>
       <c r="O12">
-        <v>0.1082098673156476</v>
+        <v>0.08362067220889408</v>
       </c>
       <c r="P12">
-        <v>0.1100251243307724</v>
+        <v>0.08440908681469358</v>
       </c>
       <c r="Q12">
-        <v>2.860246400384444</v>
+        <v>3.133179609380444</v>
       </c>
       <c r="R12">
-        <v>25.74221760346</v>
+        <v>28.198616484424</v>
       </c>
       <c r="S12">
-        <v>0.02346742931706398</v>
+        <v>0.02073119880263138</v>
       </c>
       <c r="T12">
-        <v>0.02547568036418665</v>
+        <v>0.02109571288905645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7632633333333333</v>
+        <v>0.8662813333333333</v>
       </c>
       <c r="H13">
-        <v>2.28979</v>
+        <v>2.598844</v>
       </c>
       <c r="I13">
-        <v>0.2168695877669789</v>
+        <v>0.2479195425605101</v>
       </c>
       <c r="J13">
-        <v>0.2315442088263242</v>
+        <v>0.2499222972920991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.745741</v>
       </c>
       <c r="O13">
-        <v>0.1130568762886931</v>
+        <v>0.09052040423145441</v>
       </c>
       <c r="P13">
-        <v>0.1149534435138658</v>
+        <v>0.09137387272116794</v>
       </c>
       <c r="Q13">
-        <v>2.988364476043333</v>
+        <v>3.391705391489333</v>
       </c>
       <c r="R13">
-        <v>26.89528028439</v>
+        <v>30.525348523404</v>
       </c>
       <c r="S13">
-        <v>0.0245185981549512</v>
+        <v>0.02244177720945464</v>
       </c>
       <c r="T13">
-        <v>0.02661680413027961</v>
+        <v>0.02283636818295016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7632633333333333</v>
+        <v>0.8662813333333333</v>
       </c>
       <c r="H14">
-        <v>2.28979</v>
+        <v>2.598844</v>
       </c>
       <c r="I14">
-        <v>0.2168695877669789</v>
+        <v>0.2479195425605101</v>
       </c>
       <c r="J14">
-        <v>0.2315442088263242</v>
+        <v>0.2499222972920991</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.58764366666667</v>
+        <v>18.824197</v>
       </c>
       <c r="N14">
-        <v>40.762931</v>
+        <v>56.47259099999999</v>
       </c>
       <c r="O14">
-        <v>0.3923575062000373</v>
+        <v>0.4352149230361537</v>
       </c>
       <c r="P14">
-        <v>0.3989394356786949</v>
+        <v>0.4393183318335194</v>
       </c>
       <c r="Q14">
-        <v>10.37095019716556</v>
+        <v>16.30705047608933</v>
       </c>
       <c r="R14">
-        <v>93.33855177449</v>
+        <v>146.763454284804</v>
       </c>
       <c r="S14">
-        <v>0.08509041062688197</v>
+        <v>0.1078982846346308</v>
       </c>
       <c r="T14">
-        <v>0.09237211600384368</v>
+        <v>0.1097954467343659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7632633333333333</v>
+        <v>0.8662813333333333</v>
       </c>
       <c r="H15">
-        <v>2.28979</v>
+        <v>2.598844</v>
       </c>
       <c r="I15">
-        <v>0.2168695877669789</v>
+        <v>0.2479195425605101</v>
       </c>
       <c r="J15">
-        <v>0.2315442088263242</v>
+        <v>0.2499222972920991</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7140745</v>
+        <v>1.211991</v>
       </c>
       <c r="N15">
-        <v>3.428149</v>
+        <v>2.423982</v>
       </c>
       <c r="O15">
-        <v>0.04949570453565343</v>
+        <v>0.02802119898052018</v>
       </c>
       <c r="P15">
-        <v>0.03355067444690085</v>
+        <v>0.01885693058840665</v>
       </c>
       <c r="Q15">
-        <v>1.308290216451667</v>
+        <v>1.049925179468</v>
       </c>
       <c r="R15">
-        <v>7.849741298710001</v>
+        <v>6.299551076808001</v>
       </c>
       <c r="S15">
-        <v>0.01073411303888335</v>
+        <v>0.006947002833247594</v>
       </c>
       <c r="T15">
-        <v>0.007768464370397231</v>
+        <v>0.004712767412532245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7632633333333333</v>
+        <v>0.8662813333333333</v>
       </c>
       <c r="H16">
-        <v>2.28979</v>
+        <v>2.598844</v>
       </c>
       <c r="I16">
-        <v>0.2168695877669789</v>
+        <v>0.2479195425605101</v>
       </c>
       <c r="J16">
-        <v>0.2315442088263242</v>
+        <v>0.2499222972920991</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.66641633333333</v>
+        <v>15.68439566666667</v>
       </c>
       <c r="N16">
-        <v>34.999249</v>
+        <v>47.053187</v>
       </c>
       <c r="O16">
-        <v>0.3368800456599686</v>
+        <v>0.3626228015429777</v>
       </c>
       <c r="P16">
-        <v>0.3425313220297659</v>
+        <v>0.3660417780422124</v>
       </c>
       <c r="Q16">
-        <v>8.904547818634443</v>
+        <v>13.58709919064756</v>
       </c>
       <c r="R16">
-        <v>80.14093036771</v>
+        <v>122.283892715828</v>
       </c>
       <c r="S16">
-        <v>0.07305903662919842</v>
+        <v>0.08990127908054565</v>
       </c>
       <c r="T16">
-        <v>0.07931114395761704</v>
+        <v>0.09148200207319436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.66916</v>
+        <v>0.08400249999999999</v>
       </c>
       <c r="H17">
-        <v>1.33832</v>
+        <v>0.168005</v>
       </c>
       <c r="I17">
-        <v>0.1901315666722515</v>
+        <v>0.02404052883582768</v>
       </c>
       <c r="J17">
-        <v>0.1353312948158767</v>
+        <v>0.01615648940704371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.747391333333333</v>
+        <v>3.616815333333333</v>
       </c>
       <c r="N17">
-        <v>11.242174</v>
+        <v>10.850446</v>
       </c>
       <c r="O17">
-        <v>0.1082098673156476</v>
+        <v>0.08362067220889408</v>
       </c>
       <c r="P17">
-        <v>0.1100251243307724</v>
+        <v>0.08440908681469358</v>
       </c>
       <c r="Q17">
-        <v>2.507604384613333</v>
+        <v>0.3038215300383333</v>
       </c>
       <c r="R17">
-        <v>15.04562630768</v>
+        <v>1.82292918023</v>
       </c>
       <c r="S17">
-        <v>0.02057411160212054</v>
+        <v>0.002010285181509212</v>
       </c>
       <c r="T17">
-        <v>0.01488984253796125</v>
+        <v>0.00136375451697983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.66916</v>
+        <v>0.08400249999999999</v>
       </c>
       <c r="H18">
-        <v>1.33832</v>
+        <v>0.168005</v>
       </c>
       <c r="I18">
-        <v>0.1901315666722515</v>
+        <v>0.02404052883582768</v>
       </c>
       <c r="J18">
-        <v>0.1353312948158767</v>
+        <v>0.01615648940704371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.745741</v>
       </c>
       <c r="O18">
-        <v>0.1130568762886931</v>
+        <v>0.09052040423145441</v>
       </c>
       <c r="P18">
-        <v>0.1149534435138658</v>
+        <v>0.09137387272116794</v>
       </c>
       <c r="Q18">
-        <v>2.61992668252</v>
+        <v>0.3288905361174999</v>
       </c>
       <c r="R18">
-        <v>15.71956009512</v>
+        <v>1.973343216705</v>
       </c>
       <c r="S18">
-        <v>0.02149568101184014</v>
+        <v>0.002176158388157058</v>
       </c>
       <c r="T18">
-        <v>0.0155567983542752</v>
+        <v>0.00147628100670011</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.66916</v>
+        <v>0.08400249999999999</v>
       </c>
       <c r="H19">
-        <v>1.33832</v>
+        <v>0.168005</v>
       </c>
       <c r="I19">
-        <v>0.1901315666722515</v>
+        <v>0.02404052883582768</v>
       </c>
       <c r="J19">
-        <v>0.1353312948158767</v>
+        <v>0.01615648940704371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.58764366666667</v>
+        <v>18.824197</v>
       </c>
       <c r="N19">
-        <v>40.762931</v>
+        <v>56.47259099999999</v>
       </c>
       <c r="O19">
-        <v>0.3923575062000373</v>
+        <v>0.4352149230361537</v>
       </c>
       <c r="P19">
-        <v>0.3989394356786949</v>
+        <v>0.4393183318335194</v>
       </c>
       <c r="Q19">
-        <v>9.092307635986666</v>
+        <v>1.5812796084925</v>
       </c>
       <c r="R19">
-        <v>54.55384581592</v>
+        <v>9.487677650954998</v>
       </c>
       <c r="S19">
-        <v>0.07459954734943075</v>
+        <v>0.01046279690703318</v>
       </c>
       <c r="T19">
-        <v>0.05398899038351293</v>
+        <v>0.007097841974588369</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.66916</v>
+        <v>0.08400249999999999</v>
       </c>
       <c r="H20">
-        <v>1.33832</v>
+        <v>0.168005</v>
       </c>
       <c r="I20">
-        <v>0.1901315666722515</v>
+        <v>0.02404052883582768</v>
       </c>
       <c r="J20">
-        <v>0.1353312948158767</v>
+        <v>0.01615648940704371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7140745</v>
+        <v>1.211991</v>
       </c>
       <c r="N20">
-        <v>3.428149</v>
+        <v>2.423982</v>
       </c>
       <c r="O20">
-        <v>0.04949570453565343</v>
+        <v>0.02802119898052018</v>
       </c>
       <c r="P20">
-        <v>0.03355067444690085</v>
+        <v>0.01885693058840665</v>
       </c>
       <c r="Q20">
-        <v>1.14699009242</v>
+        <v>0.1018102739775</v>
       </c>
       <c r="R20">
-        <v>4.58796036968</v>
+        <v>0.40724109591</v>
       </c>
       <c r="S20">
-        <v>0.009410695846910653</v>
+        <v>0.0006736444421056605</v>
       </c>
       <c r="T20">
-        <v>0.004540456214845039</v>
+        <v>0.0003046617993009506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.66916</v>
+        <v>0.08400249999999999</v>
       </c>
       <c r="H21">
-        <v>1.33832</v>
+        <v>0.168005</v>
       </c>
       <c r="I21">
-        <v>0.1901315666722515</v>
+        <v>0.02404052883582768</v>
       </c>
       <c r="J21">
-        <v>0.1353312948158767</v>
+        <v>0.01615648940704371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.66641633333333</v>
+        <v>15.68439566666667</v>
       </c>
       <c r="N21">
-        <v>34.999249</v>
+        <v>47.053187</v>
       </c>
       <c r="O21">
-        <v>0.3368800456599686</v>
+        <v>0.3626228015429777</v>
       </c>
       <c r="P21">
-        <v>0.3425313220297659</v>
+        <v>0.3660417780422124</v>
       </c>
       <c r="Q21">
-        <v>7.806699153613333</v>
+        <v>1.317528446989167</v>
       </c>
       <c r="R21">
-        <v>46.84019492167999</v>
+        <v>7.905170681935</v>
       </c>
       <c r="S21">
-        <v>0.06405153086194947</v>
+        <v>0.008717643917022573</v>
       </c>
       <c r="T21">
-        <v>0.04635520732528224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.410976</v>
-      </c>
-      <c r="H22">
-        <v>1.232928</v>
-      </c>
-      <c r="I22">
-        <v>0.1167725368293013</v>
-      </c>
-      <c r="J22">
-        <v>0.1246740261333233</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.747391333333333</v>
-      </c>
-      <c r="N22">
-        <v>11.242174</v>
-      </c>
-      <c r="O22">
-        <v>0.1082098673156476</v>
-      </c>
-      <c r="P22">
-        <v>0.1100251243307724</v>
-      </c>
-      <c r="Q22">
-        <v>1.540087900608</v>
-      </c>
-      <c r="R22">
-        <v>13.860791105472</v>
-      </c>
-      <c r="S22">
-        <v>0.01263594071641027</v>
-      </c>
-      <c r="T22">
-        <v>0.01371727522613686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.410976</v>
-      </c>
-      <c r="H23">
-        <v>1.232928</v>
-      </c>
-      <c r="I23">
-        <v>0.1167725368293013</v>
-      </c>
-      <c r="J23">
-        <v>0.1246740261333233</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.915246999999999</v>
-      </c>
-      <c r="N23">
-        <v>11.745741</v>
-      </c>
-      <c r="O23">
-        <v>0.1130568762886931</v>
-      </c>
-      <c r="P23">
-        <v>0.1149534435138658</v>
-      </c>
-      <c r="Q23">
-        <v>1.609072551072</v>
-      </c>
-      <c r="R23">
-        <v>14.481652959648</v>
-      </c>
-      <c r="S23">
-        <v>0.01320193825022717</v>
-      </c>
-      <c r="T23">
-        <v>0.01433170862076321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.410976</v>
-      </c>
-      <c r="H24">
-        <v>1.232928</v>
-      </c>
-      <c r="I24">
-        <v>0.1167725368293013</v>
-      </c>
-      <c r="J24">
-        <v>0.1246740261333233</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>13.58764366666667</v>
-      </c>
-      <c r="N24">
-        <v>40.762931</v>
-      </c>
-      <c r="O24">
-        <v>0.3923575062000373</v>
-      </c>
-      <c r="P24">
-        <v>0.3989394356786949</v>
-      </c>
-      <c r="Q24">
-        <v>5.584195443552</v>
-      </c>
-      <c r="R24">
-        <v>50.257758991968</v>
-      </c>
-      <c r="S24">
-        <v>0.04581658134299667</v>
-      </c>
-      <c r="T24">
-        <v>0.04973738562941885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.410976</v>
-      </c>
-      <c r="H25">
-        <v>1.232928</v>
-      </c>
-      <c r="I25">
-        <v>0.1167725368293013</v>
-      </c>
-      <c r="J25">
-        <v>0.1246740261333233</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.7140745</v>
-      </c>
-      <c r="N25">
-        <v>3.428149</v>
-      </c>
-      <c r="O25">
-        <v>0.04949570453565343</v>
-      </c>
-      <c r="P25">
-        <v>0.03355067444690085</v>
-      </c>
-      <c r="Q25">
-        <v>0.7044434817120001</v>
-      </c>
-      <c r="R25">
-        <v>4.226660890272001</v>
-      </c>
-      <c r="S25">
-        <v>0.005779738980781805</v>
-      </c>
-      <c r="T25">
-        <v>0.004182897662783539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.410976</v>
-      </c>
-      <c r="H26">
-        <v>1.232928</v>
-      </c>
-      <c r="I26">
-        <v>0.1167725368293013</v>
-      </c>
-      <c r="J26">
-        <v>0.1246740261333233</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>11.66641633333333</v>
-      </c>
-      <c r="N26">
-        <v>34.999249</v>
-      </c>
-      <c r="O26">
-        <v>0.3368800456599686</v>
-      </c>
-      <c r="P26">
-        <v>0.3425313220297659</v>
-      </c>
-      <c r="Q26">
-        <v>4.794617119008</v>
-      </c>
-      <c r="R26">
-        <v>43.151554071072</v>
-      </c>
-      <c r="S26">
-        <v>0.03933833753888538</v>
-      </c>
-      <c r="T26">
-        <v>0.04270475899422081</v>
+        <v>0.005913950109474449</v>
       </c>
     </row>
   </sheetData>
